--- a/議事録（Hosigi）_20220304.xlsx
+++ b/議事録（Hosigi）_20220304.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wud96\LeotardHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57191066-21E6-4D48-9D84-117AE3B26405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095A1F50-CF43-4FDF-A696-72F44AE2B249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="216" windowWidth="14796" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="372" windowWidth="21900" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0304" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="0323" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0304'!$A$1:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'0323'!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
   <si>
     <t>日付</t>
   </si>
@@ -525,6 +527,321 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>2022/0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (水)　14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホシギチキン1号店</t>
+    <rPh sb="7" eb="9">
+      <t>ゴウテン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チョウ様・金（記）</t>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホシギホームページ制作に必要な情報と制作の流れ説明</t>
+    <rPh sb="18" eb="20">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>□なし　　■あり（ホシギ必要情報（220308.xlsx）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームページ名はKOREAFOODHOLDINGSで設定</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メインロゴはホシギチキンを使用する</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各店舗の宣伝文と高画質写真ファイル提供</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センデン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会社のストーリー・歴史のネタ提供</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>他のロゴも追加してほしい（４～５個くらい）</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メニューの詳細（写真など）情報提供</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>配達用電話番号追加希望</t>
+    <rPh sb="0" eb="2">
+      <t>ハイタツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メニューが違う店舗のページ作成</t>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Contact</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チェーン店募集案内のブロック作成</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ローディング画面のロゴをループ式で変更できるのか確認</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>必要な情報提供</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チョウ様</t>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チョウ様</t>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新しいページ作成ーチェーン店・違うメニュー</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ローディング画面のロゴ表現法の変更方法確認</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>提供された情報でページを完成</t>
+    <rPh sb="0" eb="2">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -930,6 +1247,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -944,18 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1240,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5CA1A9-61F5-4DC6-949C-8244E97F1666}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15"/>
@@ -1587,11 +1904,11 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1602,11 +1919,11 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1617,11 +1934,11 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
@@ -1632,11 +1949,11 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="10" t="s">
         <v>1</v>
       </c>
@@ -1647,11 +1964,11 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
@@ -1758,7 +2075,7 @@
       <c r="E17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7">
@@ -1769,7 +2086,7 @@
       <c r="E18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
@@ -1782,7 +2099,7 @@
       <c r="E19" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7">
@@ -1795,7 +2112,7 @@
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7">
@@ -1808,7 +2125,7 @@
       <c r="E21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7">
@@ -1821,8 +2138,8 @@
       <c r="E22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="31"/>
@@ -1834,7 +2151,7 @@
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="47"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7">
@@ -1847,7 +2164,7 @@
       <c r="E24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7">
@@ -1857,10 +2174,10 @@
       <c r="D25" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7">
@@ -1873,7 +2190,7 @@
       <c r="E26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7">
@@ -1886,7 +2203,7 @@
       <c r="E27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7">
@@ -1899,7 +2216,7 @@
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="47"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7">
@@ -1912,7 +2229,7 @@
       <c r="E29" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7">
@@ -2033,11 +2350,11 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="21" t="s">
         <v>19</v>
       </c>
@@ -2048,11 +2365,11 @@
       <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="38" t="s">
         <v>19</v>
       </c>
@@ -2085,13 +2402,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" thickTop="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="45" t="s">
         <v>50</v>
       </c>
       <c r="F43" s="39"/>
@@ -2181,14 +2498,885 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0FACD-B6C3-47C2-9B4B-5459CCD3D95E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643F34B1-FE7A-4B4E-B26C-4BFD729B19C7}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="2.3984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="60" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" style="2" customWidth="1"/>
+    <col min="8" max="256" width="8.19921875" style="3"/>
+    <col min="257" max="260" width="2.3984375" style="3" customWidth="1"/>
+    <col min="261" max="261" width="60" style="3" customWidth="1"/>
+    <col min="262" max="262" width="3.19921875" style="3" customWidth="1"/>
+    <col min="263" max="263" width="6.69921875" style="3" customWidth="1"/>
+    <col min="264" max="512" width="8.19921875" style="3"/>
+    <col min="513" max="516" width="2.3984375" style="3" customWidth="1"/>
+    <col min="517" max="517" width="60" style="3" customWidth="1"/>
+    <col min="518" max="518" width="3.19921875" style="3" customWidth="1"/>
+    <col min="519" max="519" width="6.69921875" style="3" customWidth="1"/>
+    <col min="520" max="768" width="8.19921875" style="3"/>
+    <col min="769" max="772" width="2.3984375" style="3" customWidth="1"/>
+    <col min="773" max="773" width="60" style="3" customWidth="1"/>
+    <col min="774" max="774" width="3.19921875" style="3" customWidth="1"/>
+    <col min="775" max="775" width="6.69921875" style="3" customWidth="1"/>
+    <col min="776" max="1024" width="8.19921875" style="3"/>
+    <col min="1025" max="1028" width="2.3984375" style="3" customWidth="1"/>
+    <col min="1029" max="1029" width="60" style="3" customWidth="1"/>
+    <col min="1030" max="1030" width="3.19921875" style="3" customWidth="1"/>
+    <col min="1031" max="1031" width="6.69921875" style="3" customWidth="1"/>
+    <col min="1032" max="1280" width="8.19921875" style="3"/>
+    <col min="1281" max="1284" width="2.3984375" style="3" customWidth="1"/>
+    <col min="1285" max="1285" width="60" style="3" customWidth="1"/>
+    <col min="1286" max="1286" width="3.19921875" style="3" customWidth="1"/>
+    <col min="1287" max="1287" width="6.69921875" style="3" customWidth="1"/>
+    <col min="1288" max="1536" width="8.19921875" style="3"/>
+    <col min="1537" max="1540" width="2.3984375" style="3" customWidth="1"/>
+    <col min="1541" max="1541" width="60" style="3" customWidth="1"/>
+    <col min="1542" max="1542" width="3.19921875" style="3" customWidth="1"/>
+    <col min="1543" max="1543" width="6.69921875" style="3" customWidth="1"/>
+    <col min="1544" max="1792" width="8.19921875" style="3"/>
+    <col min="1793" max="1796" width="2.3984375" style="3" customWidth="1"/>
+    <col min="1797" max="1797" width="60" style="3" customWidth="1"/>
+    <col min="1798" max="1798" width="3.19921875" style="3" customWidth="1"/>
+    <col min="1799" max="1799" width="6.69921875" style="3" customWidth="1"/>
+    <col min="1800" max="2048" width="8.19921875" style="3"/>
+    <col min="2049" max="2052" width="2.3984375" style="3" customWidth="1"/>
+    <col min="2053" max="2053" width="60" style="3" customWidth="1"/>
+    <col min="2054" max="2054" width="3.19921875" style="3" customWidth="1"/>
+    <col min="2055" max="2055" width="6.69921875" style="3" customWidth="1"/>
+    <col min="2056" max="2304" width="8.19921875" style="3"/>
+    <col min="2305" max="2308" width="2.3984375" style="3" customWidth="1"/>
+    <col min="2309" max="2309" width="60" style="3" customWidth="1"/>
+    <col min="2310" max="2310" width="3.19921875" style="3" customWidth="1"/>
+    <col min="2311" max="2311" width="6.69921875" style="3" customWidth="1"/>
+    <col min="2312" max="2560" width="8.19921875" style="3"/>
+    <col min="2561" max="2564" width="2.3984375" style="3" customWidth="1"/>
+    <col min="2565" max="2565" width="60" style="3" customWidth="1"/>
+    <col min="2566" max="2566" width="3.19921875" style="3" customWidth="1"/>
+    <col min="2567" max="2567" width="6.69921875" style="3" customWidth="1"/>
+    <col min="2568" max="2816" width="8.19921875" style="3"/>
+    <col min="2817" max="2820" width="2.3984375" style="3" customWidth="1"/>
+    <col min="2821" max="2821" width="60" style="3" customWidth="1"/>
+    <col min="2822" max="2822" width="3.19921875" style="3" customWidth="1"/>
+    <col min="2823" max="2823" width="6.69921875" style="3" customWidth="1"/>
+    <col min="2824" max="3072" width="8.19921875" style="3"/>
+    <col min="3073" max="3076" width="2.3984375" style="3" customWidth="1"/>
+    <col min="3077" max="3077" width="60" style="3" customWidth="1"/>
+    <col min="3078" max="3078" width="3.19921875" style="3" customWidth="1"/>
+    <col min="3079" max="3079" width="6.69921875" style="3" customWidth="1"/>
+    <col min="3080" max="3328" width="8.19921875" style="3"/>
+    <col min="3329" max="3332" width="2.3984375" style="3" customWidth="1"/>
+    <col min="3333" max="3333" width="60" style="3" customWidth="1"/>
+    <col min="3334" max="3334" width="3.19921875" style="3" customWidth="1"/>
+    <col min="3335" max="3335" width="6.69921875" style="3" customWidth="1"/>
+    <col min="3336" max="3584" width="8.19921875" style="3"/>
+    <col min="3585" max="3588" width="2.3984375" style="3" customWidth="1"/>
+    <col min="3589" max="3589" width="60" style="3" customWidth="1"/>
+    <col min="3590" max="3590" width="3.19921875" style="3" customWidth="1"/>
+    <col min="3591" max="3591" width="6.69921875" style="3" customWidth="1"/>
+    <col min="3592" max="3840" width="8.19921875" style="3"/>
+    <col min="3841" max="3844" width="2.3984375" style="3" customWidth="1"/>
+    <col min="3845" max="3845" width="60" style="3" customWidth="1"/>
+    <col min="3846" max="3846" width="3.19921875" style="3" customWidth="1"/>
+    <col min="3847" max="3847" width="6.69921875" style="3" customWidth="1"/>
+    <col min="3848" max="4096" width="8.19921875" style="3"/>
+    <col min="4097" max="4100" width="2.3984375" style="3" customWidth="1"/>
+    <col min="4101" max="4101" width="60" style="3" customWidth="1"/>
+    <col min="4102" max="4102" width="3.19921875" style="3" customWidth="1"/>
+    <col min="4103" max="4103" width="6.69921875" style="3" customWidth="1"/>
+    <col min="4104" max="4352" width="8.19921875" style="3"/>
+    <col min="4353" max="4356" width="2.3984375" style="3" customWidth="1"/>
+    <col min="4357" max="4357" width="60" style="3" customWidth="1"/>
+    <col min="4358" max="4358" width="3.19921875" style="3" customWidth="1"/>
+    <col min="4359" max="4359" width="6.69921875" style="3" customWidth="1"/>
+    <col min="4360" max="4608" width="8.19921875" style="3"/>
+    <col min="4609" max="4612" width="2.3984375" style="3" customWidth="1"/>
+    <col min="4613" max="4613" width="60" style="3" customWidth="1"/>
+    <col min="4614" max="4614" width="3.19921875" style="3" customWidth="1"/>
+    <col min="4615" max="4615" width="6.69921875" style="3" customWidth="1"/>
+    <col min="4616" max="4864" width="8.19921875" style="3"/>
+    <col min="4865" max="4868" width="2.3984375" style="3" customWidth="1"/>
+    <col min="4869" max="4869" width="60" style="3" customWidth="1"/>
+    <col min="4870" max="4870" width="3.19921875" style="3" customWidth="1"/>
+    <col min="4871" max="4871" width="6.69921875" style="3" customWidth="1"/>
+    <col min="4872" max="5120" width="8.19921875" style="3"/>
+    <col min="5121" max="5124" width="2.3984375" style="3" customWidth="1"/>
+    <col min="5125" max="5125" width="60" style="3" customWidth="1"/>
+    <col min="5126" max="5126" width="3.19921875" style="3" customWidth="1"/>
+    <col min="5127" max="5127" width="6.69921875" style="3" customWidth="1"/>
+    <col min="5128" max="5376" width="8.19921875" style="3"/>
+    <col min="5377" max="5380" width="2.3984375" style="3" customWidth="1"/>
+    <col min="5381" max="5381" width="60" style="3" customWidth="1"/>
+    <col min="5382" max="5382" width="3.19921875" style="3" customWidth="1"/>
+    <col min="5383" max="5383" width="6.69921875" style="3" customWidth="1"/>
+    <col min="5384" max="5632" width="8.19921875" style="3"/>
+    <col min="5633" max="5636" width="2.3984375" style="3" customWidth="1"/>
+    <col min="5637" max="5637" width="60" style="3" customWidth="1"/>
+    <col min="5638" max="5638" width="3.19921875" style="3" customWidth="1"/>
+    <col min="5639" max="5639" width="6.69921875" style="3" customWidth="1"/>
+    <col min="5640" max="5888" width="8.19921875" style="3"/>
+    <col min="5889" max="5892" width="2.3984375" style="3" customWidth="1"/>
+    <col min="5893" max="5893" width="60" style="3" customWidth="1"/>
+    <col min="5894" max="5894" width="3.19921875" style="3" customWidth="1"/>
+    <col min="5895" max="5895" width="6.69921875" style="3" customWidth="1"/>
+    <col min="5896" max="6144" width="8.19921875" style="3"/>
+    <col min="6145" max="6148" width="2.3984375" style="3" customWidth="1"/>
+    <col min="6149" max="6149" width="60" style="3" customWidth="1"/>
+    <col min="6150" max="6150" width="3.19921875" style="3" customWidth="1"/>
+    <col min="6151" max="6151" width="6.69921875" style="3" customWidth="1"/>
+    <col min="6152" max="6400" width="8.19921875" style="3"/>
+    <col min="6401" max="6404" width="2.3984375" style="3" customWidth="1"/>
+    <col min="6405" max="6405" width="60" style="3" customWidth="1"/>
+    <col min="6406" max="6406" width="3.19921875" style="3" customWidth="1"/>
+    <col min="6407" max="6407" width="6.69921875" style="3" customWidth="1"/>
+    <col min="6408" max="6656" width="8.19921875" style="3"/>
+    <col min="6657" max="6660" width="2.3984375" style="3" customWidth="1"/>
+    <col min="6661" max="6661" width="60" style="3" customWidth="1"/>
+    <col min="6662" max="6662" width="3.19921875" style="3" customWidth="1"/>
+    <col min="6663" max="6663" width="6.69921875" style="3" customWidth="1"/>
+    <col min="6664" max="6912" width="8.19921875" style="3"/>
+    <col min="6913" max="6916" width="2.3984375" style="3" customWidth="1"/>
+    <col min="6917" max="6917" width="60" style="3" customWidth="1"/>
+    <col min="6918" max="6918" width="3.19921875" style="3" customWidth="1"/>
+    <col min="6919" max="6919" width="6.69921875" style="3" customWidth="1"/>
+    <col min="6920" max="7168" width="8.19921875" style="3"/>
+    <col min="7169" max="7172" width="2.3984375" style="3" customWidth="1"/>
+    <col min="7173" max="7173" width="60" style="3" customWidth="1"/>
+    <col min="7174" max="7174" width="3.19921875" style="3" customWidth="1"/>
+    <col min="7175" max="7175" width="6.69921875" style="3" customWidth="1"/>
+    <col min="7176" max="7424" width="8.19921875" style="3"/>
+    <col min="7425" max="7428" width="2.3984375" style="3" customWidth="1"/>
+    <col min="7429" max="7429" width="60" style="3" customWidth="1"/>
+    <col min="7430" max="7430" width="3.19921875" style="3" customWidth="1"/>
+    <col min="7431" max="7431" width="6.69921875" style="3" customWidth="1"/>
+    <col min="7432" max="7680" width="8.19921875" style="3"/>
+    <col min="7681" max="7684" width="2.3984375" style="3" customWidth="1"/>
+    <col min="7685" max="7685" width="60" style="3" customWidth="1"/>
+    <col min="7686" max="7686" width="3.19921875" style="3" customWidth="1"/>
+    <col min="7687" max="7687" width="6.69921875" style="3" customWidth="1"/>
+    <col min="7688" max="7936" width="8.19921875" style="3"/>
+    <col min="7937" max="7940" width="2.3984375" style="3" customWidth="1"/>
+    <col min="7941" max="7941" width="60" style="3" customWidth="1"/>
+    <col min="7942" max="7942" width="3.19921875" style="3" customWidth="1"/>
+    <col min="7943" max="7943" width="6.69921875" style="3" customWidth="1"/>
+    <col min="7944" max="8192" width="8.19921875" style="3"/>
+    <col min="8193" max="8196" width="2.3984375" style="3" customWidth="1"/>
+    <col min="8197" max="8197" width="60" style="3" customWidth="1"/>
+    <col min="8198" max="8198" width="3.19921875" style="3" customWidth="1"/>
+    <col min="8199" max="8199" width="6.69921875" style="3" customWidth="1"/>
+    <col min="8200" max="8448" width="8.19921875" style="3"/>
+    <col min="8449" max="8452" width="2.3984375" style="3" customWidth="1"/>
+    <col min="8453" max="8453" width="60" style="3" customWidth="1"/>
+    <col min="8454" max="8454" width="3.19921875" style="3" customWidth="1"/>
+    <col min="8455" max="8455" width="6.69921875" style="3" customWidth="1"/>
+    <col min="8456" max="8704" width="8.19921875" style="3"/>
+    <col min="8705" max="8708" width="2.3984375" style="3" customWidth="1"/>
+    <col min="8709" max="8709" width="60" style="3" customWidth="1"/>
+    <col min="8710" max="8710" width="3.19921875" style="3" customWidth="1"/>
+    <col min="8711" max="8711" width="6.69921875" style="3" customWidth="1"/>
+    <col min="8712" max="8960" width="8.19921875" style="3"/>
+    <col min="8961" max="8964" width="2.3984375" style="3" customWidth="1"/>
+    <col min="8965" max="8965" width="60" style="3" customWidth="1"/>
+    <col min="8966" max="8966" width="3.19921875" style="3" customWidth="1"/>
+    <col min="8967" max="8967" width="6.69921875" style="3" customWidth="1"/>
+    <col min="8968" max="9216" width="8.19921875" style="3"/>
+    <col min="9217" max="9220" width="2.3984375" style="3" customWidth="1"/>
+    <col min="9221" max="9221" width="60" style="3" customWidth="1"/>
+    <col min="9222" max="9222" width="3.19921875" style="3" customWidth="1"/>
+    <col min="9223" max="9223" width="6.69921875" style="3" customWidth="1"/>
+    <col min="9224" max="9472" width="8.19921875" style="3"/>
+    <col min="9473" max="9476" width="2.3984375" style="3" customWidth="1"/>
+    <col min="9477" max="9477" width="60" style="3" customWidth="1"/>
+    <col min="9478" max="9478" width="3.19921875" style="3" customWidth="1"/>
+    <col min="9479" max="9479" width="6.69921875" style="3" customWidth="1"/>
+    <col min="9480" max="9728" width="8.19921875" style="3"/>
+    <col min="9729" max="9732" width="2.3984375" style="3" customWidth="1"/>
+    <col min="9733" max="9733" width="60" style="3" customWidth="1"/>
+    <col min="9734" max="9734" width="3.19921875" style="3" customWidth="1"/>
+    <col min="9735" max="9735" width="6.69921875" style="3" customWidth="1"/>
+    <col min="9736" max="9984" width="8.19921875" style="3"/>
+    <col min="9985" max="9988" width="2.3984375" style="3" customWidth="1"/>
+    <col min="9989" max="9989" width="60" style="3" customWidth="1"/>
+    <col min="9990" max="9990" width="3.19921875" style="3" customWidth="1"/>
+    <col min="9991" max="9991" width="6.69921875" style="3" customWidth="1"/>
+    <col min="9992" max="10240" width="8.19921875" style="3"/>
+    <col min="10241" max="10244" width="2.3984375" style="3" customWidth="1"/>
+    <col min="10245" max="10245" width="60" style="3" customWidth="1"/>
+    <col min="10246" max="10246" width="3.19921875" style="3" customWidth="1"/>
+    <col min="10247" max="10247" width="6.69921875" style="3" customWidth="1"/>
+    <col min="10248" max="10496" width="8.19921875" style="3"/>
+    <col min="10497" max="10500" width="2.3984375" style="3" customWidth="1"/>
+    <col min="10501" max="10501" width="60" style="3" customWidth="1"/>
+    <col min="10502" max="10502" width="3.19921875" style="3" customWidth="1"/>
+    <col min="10503" max="10503" width="6.69921875" style="3" customWidth="1"/>
+    <col min="10504" max="10752" width="8.19921875" style="3"/>
+    <col min="10753" max="10756" width="2.3984375" style="3" customWidth="1"/>
+    <col min="10757" max="10757" width="60" style="3" customWidth="1"/>
+    <col min="10758" max="10758" width="3.19921875" style="3" customWidth="1"/>
+    <col min="10759" max="10759" width="6.69921875" style="3" customWidth="1"/>
+    <col min="10760" max="11008" width="8.19921875" style="3"/>
+    <col min="11009" max="11012" width="2.3984375" style="3" customWidth="1"/>
+    <col min="11013" max="11013" width="60" style="3" customWidth="1"/>
+    <col min="11014" max="11014" width="3.19921875" style="3" customWidth="1"/>
+    <col min="11015" max="11015" width="6.69921875" style="3" customWidth="1"/>
+    <col min="11016" max="11264" width="8.19921875" style="3"/>
+    <col min="11265" max="11268" width="2.3984375" style="3" customWidth="1"/>
+    <col min="11269" max="11269" width="60" style="3" customWidth="1"/>
+    <col min="11270" max="11270" width="3.19921875" style="3" customWidth="1"/>
+    <col min="11271" max="11271" width="6.69921875" style="3" customWidth="1"/>
+    <col min="11272" max="11520" width="8.19921875" style="3"/>
+    <col min="11521" max="11524" width="2.3984375" style="3" customWidth="1"/>
+    <col min="11525" max="11525" width="60" style="3" customWidth="1"/>
+    <col min="11526" max="11526" width="3.19921875" style="3" customWidth="1"/>
+    <col min="11527" max="11527" width="6.69921875" style="3" customWidth="1"/>
+    <col min="11528" max="11776" width="8.19921875" style="3"/>
+    <col min="11777" max="11780" width="2.3984375" style="3" customWidth="1"/>
+    <col min="11781" max="11781" width="60" style="3" customWidth="1"/>
+    <col min="11782" max="11782" width="3.19921875" style="3" customWidth="1"/>
+    <col min="11783" max="11783" width="6.69921875" style="3" customWidth="1"/>
+    <col min="11784" max="12032" width="8.19921875" style="3"/>
+    <col min="12033" max="12036" width="2.3984375" style="3" customWidth="1"/>
+    <col min="12037" max="12037" width="60" style="3" customWidth="1"/>
+    <col min="12038" max="12038" width="3.19921875" style="3" customWidth="1"/>
+    <col min="12039" max="12039" width="6.69921875" style="3" customWidth="1"/>
+    <col min="12040" max="12288" width="8.19921875" style="3"/>
+    <col min="12289" max="12292" width="2.3984375" style="3" customWidth="1"/>
+    <col min="12293" max="12293" width="60" style="3" customWidth="1"/>
+    <col min="12294" max="12294" width="3.19921875" style="3" customWidth="1"/>
+    <col min="12295" max="12295" width="6.69921875" style="3" customWidth="1"/>
+    <col min="12296" max="12544" width="8.19921875" style="3"/>
+    <col min="12545" max="12548" width="2.3984375" style="3" customWidth="1"/>
+    <col min="12549" max="12549" width="60" style="3" customWidth="1"/>
+    <col min="12550" max="12550" width="3.19921875" style="3" customWidth="1"/>
+    <col min="12551" max="12551" width="6.69921875" style="3" customWidth="1"/>
+    <col min="12552" max="12800" width="8.19921875" style="3"/>
+    <col min="12801" max="12804" width="2.3984375" style="3" customWidth="1"/>
+    <col min="12805" max="12805" width="60" style="3" customWidth="1"/>
+    <col min="12806" max="12806" width="3.19921875" style="3" customWidth="1"/>
+    <col min="12807" max="12807" width="6.69921875" style="3" customWidth="1"/>
+    <col min="12808" max="13056" width="8.19921875" style="3"/>
+    <col min="13057" max="13060" width="2.3984375" style="3" customWidth="1"/>
+    <col min="13061" max="13061" width="60" style="3" customWidth="1"/>
+    <col min="13062" max="13062" width="3.19921875" style="3" customWidth="1"/>
+    <col min="13063" max="13063" width="6.69921875" style="3" customWidth="1"/>
+    <col min="13064" max="13312" width="8.19921875" style="3"/>
+    <col min="13313" max="13316" width="2.3984375" style="3" customWidth="1"/>
+    <col min="13317" max="13317" width="60" style="3" customWidth="1"/>
+    <col min="13318" max="13318" width="3.19921875" style="3" customWidth="1"/>
+    <col min="13319" max="13319" width="6.69921875" style="3" customWidth="1"/>
+    <col min="13320" max="13568" width="8.19921875" style="3"/>
+    <col min="13569" max="13572" width="2.3984375" style="3" customWidth="1"/>
+    <col min="13573" max="13573" width="60" style="3" customWidth="1"/>
+    <col min="13574" max="13574" width="3.19921875" style="3" customWidth="1"/>
+    <col min="13575" max="13575" width="6.69921875" style="3" customWidth="1"/>
+    <col min="13576" max="13824" width="8.19921875" style="3"/>
+    <col min="13825" max="13828" width="2.3984375" style="3" customWidth="1"/>
+    <col min="13829" max="13829" width="60" style="3" customWidth="1"/>
+    <col min="13830" max="13830" width="3.19921875" style="3" customWidth="1"/>
+    <col min="13831" max="13831" width="6.69921875" style="3" customWidth="1"/>
+    <col min="13832" max="14080" width="8.19921875" style="3"/>
+    <col min="14081" max="14084" width="2.3984375" style="3" customWidth="1"/>
+    <col min="14085" max="14085" width="60" style="3" customWidth="1"/>
+    <col min="14086" max="14086" width="3.19921875" style="3" customWidth="1"/>
+    <col min="14087" max="14087" width="6.69921875" style="3" customWidth="1"/>
+    <col min="14088" max="14336" width="8.19921875" style="3"/>
+    <col min="14337" max="14340" width="2.3984375" style="3" customWidth="1"/>
+    <col min="14341" max="14341" width="60" style="3" customWidth="1"/>
+    <col min="14342" max="14342" width="3.19921875" style="3" customWidth="1"/>
+    <col min="14343" max="14343" width="6.69921875" style="3" customWidth="1"/>
+    <col min="14344" max="14592" width="8.19921875" style="3"/>
+    <col min="14593" max="14596" width="2.3984375" style="3" customWidth="1"/>
+    <col min="14597" max="14597" width="60" style="3" customWidth="1"/>
+    <col min="14598" max="14598" width="3.19921875" style="3" customWidth="1"/>
+    <col min="14599" max="14599" width="6.69921875" style="3" customWidth="1"/>
+    <col min="14600" max="14848" width="8.19921875" style="3"/>
+    <col min="14849" max="14852" width="2.3984375" style="3" customWidth="1"/>
+    <col min="14853" max="14853" width="60" style="3" customWidth="1"/>
+    <col min="14854" max="14854" width="3.19921875" style="3" customWidth="1"/>
+    <col min="14855" max="14855" width="6.69921875" style="3" customWidth="1"/>
+    <col min="14856" max="15104" width="8.19921875" style="3"/>
+    <col min="15105" max="15108" width="2.3984375" style="3" customWidth="1"/>
+    <col min="15109" max="15109" width="60" style="3" customWidth="1"/>
+    <col min="15110" max="15110" width="3.19921875" style="3" customWidth="1"/>
+    <col min="15111" max="15111" width="6.69921875" style="3" customWidth="1"/>
+    <col min="15112" max="15360" width="8.19921875" style="3"/>
+    <col min="15361" max="15364" width="2.3984375" style="3" customWidth="1"/>
+    <col min="15365" max="15365" width="60" style="3" customWidth="1"/>
+    <col min="15366" max="15366" width="3.19921875" style="3" customWidth="1"/>
+    <col min="15367" max="15367" width="6.69921875" style="3" customWidth="1"/>
+    <col min="15368" max="15616" width="8.19921875" style="3"/>
+    <col min="15617" max="15620" width="2.3984375" style="3" customWidth="1"/>
+    <col min="15621" max="15621" width="60" style="3" customWidth="1"/>
+    <col min="15622" max="15622" width="3.19921875" style="3" customWidth="1"/>
+    <col min="15623" max="15623" width="6.69921875" style="3" customWidth="1"/>
+    <col min="15624" max="15872" width="8.19921875" style="3"/>
+    <col min="15873" max="15876" width="2.3984375" style="3" customWidth="1"/>
+    <col min="15877" max="15877" width="60" style="3" customWidth="1"/>
+    <col min="15878" max="15878" width="3.19921875" style="3" customWidth="1"/>
+    <col min="15879" max="15879" width="6.69921875" style="3" customWidth="1"/>
+    <col min="15880" max="16128" width="8.19921875" style="3"/>
+    <col min="16129" max="16132" width="2.3984375" style="3" customWidth="1"/>
+    <col min="16133" max="16133" width="60" style="3" customWidth="1"/>
+    <col min="16134" max="16134" width="3.19921875" style="3" customWidth="1"/>
+    <col min="16135" max="16135" width="6.69921875" style="3" customWidth="1"/>
+    <col min="16136" max="16384" width="8.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.6">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="4.5" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="3" customHeight="1" thickTop="1"/>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" ht="3" customHeight="1" thickTop="1">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="34"/>
+    </row>
+    <row r="32" spans="1:7" ht="4.5" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A33" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A34" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="1:7" ht="4.5" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:7" ht="4.5" customHeight="1">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A33:C33"/>
+  </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>